--- a/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
@@ -9,6 +9,11 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Distribution_Logic" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="All_Courses_Overview" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,7 +479,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -484,12 +489,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,27 +511,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -570,27 +575,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC263</t>
         </is>
       </c>
     </row>
@@ -602,27 +607,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -634,27 +639,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -666,22 +671,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -701,7 +706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,27 +811,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**HSS_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -853,27 +858,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -900,22 +905,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**EC261**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -935,7 +940,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -947,32 +952,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**EC263**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -994,47 +999,4032 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>**EC261**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2-1-0-0-3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>**EC263**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Analog Electronics</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>**MA262**</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Total Courses: 9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Complete: 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Rate: 11.1%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lectures: 18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[WARN] 8 issues</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2-1-0-0-3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Analog Electronics</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Total Courses: 5</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Complete: 1</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rate: 20.0%</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lectures: 10</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Labs: 2</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[WARN] 4 issues</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 5, Elective: 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/9 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>37.1%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 74.3%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 35.1/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2+1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2-1-0-0-3</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Deepak K T</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Analog Electronics</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signels</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled In</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Logic Applied</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>In Pre-Mid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>In Post-Mid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Random Processes</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Analog Electronics</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Electronics Systems design - 1</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signels</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2+1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Deepak K T</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Random Processes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Electronics Systems design - 1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2+1</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Deepak K T</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Analog Electronics</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signels</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
@@ -9,11 +9,18 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Distribution_Logic" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="All_Courses_Overview" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Room_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Distribution_Logic" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="All_Courses_Overview" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Basket_Allocation" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Basket_Courses" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Classroom_Utilization" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Section_A" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Basket_Course_Allocations" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,27 +486,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [L404]</t>
         </is>
       </c>
     </row>
@@ -516,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA261 [L407]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,12 +533,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS307 [L402]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC263 [C304]</t>
         </is>
       </c>
     </row>
@@ -595,7 +602,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -607,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC261 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,7 +651,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -654,12 +661,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>EC263 [C204]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -671,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>CS307 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -686,14 +693,2635 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>EC263 (Lab) [C203]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Courses</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ASD352, CS253</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MA262 [C004]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MA262 [C004]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MA261 [C004]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC261 [C004]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CS307 [L404]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA261 [L407]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS307 [L402]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC263 [C304]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HSS_B3 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC261 [C004]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EC263 [C204]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L105]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L105]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -764,17 +3392,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -804,7 +3432,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -905,22 +3533,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**EC261**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -940,12 +3568,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -999,22 +3627,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**EC261**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1034,34 +3662,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>L402, L404, C004</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**EC263**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1071,7 +3699,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1086,7 +3714,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>L407, C004</t>
         </is>
       </c>
     </row>
@@ -1140,22 +3768,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**EC263**</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1165,7 +3793,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1180,7 +3808,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C203, C304, C204</t>
         </is>
       </c>
     </row>
@@ -1237,6 +3865,5610 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Sessions</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Courses Assigned</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sample Courses</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization (Sessions/Day)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MA261, EC261 (Tutorial), MA262...</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>3</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>3</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>3</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1825,7 +10057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1894,7 +10126,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-13 16:20</t>
+          <t>2026-01-18 11:33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1958,12 +10190,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/35</t>
+          <t>7/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 0.0%</t>
+          <t>Utilization: 19.4%</t>
         </is>
       </c>
     </row>
@@ -2016,7 +10248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2136,10 +10368,8 @@
           <t>HSS (Ethics)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2+1</t>
-        </is>
+      <c r="F2" t="n">
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2210,10 +10440,8 @@
           <t>Multivariable Calculus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2284,10 +10512,8 @@
           <t>Differential Equations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F4" t="n">
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2358,10 +10584,8 @@
           <t>HSS/IE</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F5" t="n">
+        <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2432,10 +10656,8 @@
           <t>Signals &amp; Systems</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F6" t="n">
+        <v>3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2506,10 +10728,8 @@
           <t>Machine Learning</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F7" t="n">
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2580,10 +10800,8 @@
           <t>User Interaction (Minor)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F8" t="n">
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2654,10 +10872,8 @@
           <t>Analog Electronics</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F9" t="n">
+        <v>2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2728,10 +10944,8 @@
           <t>Introduction to embedded signels</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F10" t="n">
+        <v>2</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2783,7 +10997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2956,7 +11170,9 @@
           <t>HSS (Ethics)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>No</t>
@@ -2969,7 +11185,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>nan-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>3-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -3209,7 +11425,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>3-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3305,7 +11521,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>3-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3449,7 +11665,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3737,7 +11953,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3812,7 +12028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3889,10 +12105,8 @@
           <t>HSS (Ethics)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2+1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -3939,10 +12153,8 @@
           <t>Multivariable Calculus</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C3" t="n">
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -3989,10 +12201,8 @@
           <t>Differential Equations</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -4039,10 +12249,8 @@
           <t>HSS/IE</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -4089,10 +12297,8 @@
           <t>Signals &amp; Systems</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C6" t="n">
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -4139,10 +12345,8 @@
           <t>Machine Learning</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C7" t="n">
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -4189,10 +12393,8 @@
           <t>User Interaction (Minor)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C8" t="n">
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
@@ -4239,10 +12441,8 @@
           <t>Random Processes</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C9" t="n">
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -4289,10 +12489,8 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C10" t="n">
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -4339,10 +12537,8 @@
           <t>Electronics Systems design - 1</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C11" t="n">
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -4389,10 +12585,8 @@
           <t>Introduction of RFIC</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C12" t="n">
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>3</v>
@@ -4439,10 +12633,8 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C13" t="n">
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>3</v>
@@ -4489,10 +12681,8 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C14" t="n">
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -4539,10 +12729,8 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C15" t="n">
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -4589,10 +12777,8 @@
           <t>HSS (Ethics)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2+1</t>
-        </is>
+      <c r="C16" t="n">
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -4639,10 +12825,8 @@
           <t>Multivariable Calculus</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C17" t="n">
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -4659,7 +12843,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4689,10 +12873,8 @@
           <t>Differential Equations</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C18" t="n">
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -4709,7 +12891,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4739,10 +12921,8 @@
           <t>HSS/IE</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C19" t="n">
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>3</v>
@@ -4789,10 +12969,8 @@
           <t>Signals &amp; Systems</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C20" t="n">
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
@@ -4839,10 +13017,8 @@
           <t>Machine Learning</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C21" t="n">
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>
@@ -4889,10 +13065,8 @@
           <t>User Interaction (Minor)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C22" t="n">
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
@@ -4939,10 +13113,8 @@
           <t>Analog Electronics</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C23" t="n">
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
@@ -4959,7 +13131,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4989,10 +13161,8 @@
           <t>Introduction to embedded signels</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C24" t="n">
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -5009,7 +13179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">

--- a/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
@@ -1780,16 +1780,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2052,16 +2052,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5070,7 +5070,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -5129,7 +5129,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -5154,12 +5154,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5188,12 +5188,12 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -5213,29 +5213,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="b">
         <v>0</v>
       </c>
@@ -5247,7 +5243,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -5272,12 +5268,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -5303,7 +5299,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -5331,27 +5331,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -5362,15 +5362,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -5390,27 +5394,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5421,15 +5425,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -5449,27 +5457,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5480,15 +5488,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -5508,27 +5520,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -5539,15 +5551,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -5567,27 +5583,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5598,15 +5614,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5646,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5669,7 +5689,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -5689,27 +5709,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -5720,19 +5740,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MA263</t>
         </is>
       </c>
     </row>
@@ -5752,27 +5768,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5783,19 +5799,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -5815,27 +5827,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5846,19 +5858,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -5878,12 +5886,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5909,11 +5917,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5921,7 +5925,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC261</t>
         </is>
       </c>
     </row>
@@ -5941,27 +5945,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -5972,19 +5976,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -6004,27 +6004,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -6035,19 +6035,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -6067,27 +6063,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -6101,12 +6097,12 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -6131,22 +6127,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -6160,12 +6156,12 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -6185,12 +6181,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6205,7 +6201,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -6219,7 +6215,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -6244,27 +6240,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -6275,15 +6271,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -6303,27 +6303,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6334,15 +6334,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -6362,27 +6366,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -6393,15 +6397,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -6421,25 +6429,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -6448,15 +6460,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -6476,27 +6492,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6507,15 +6523,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -6535,27 +6555,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6566,15 +6586,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6594,7 +6618,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -6637,7 +6661,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -6657,27 +6681,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -6688,19 +6712,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6720,27 +6740,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -6751,19 +6771,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6783,27 +6799,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6814,19 +6830,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -6846,27 +6858,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6877,19 +6889,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6917,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -6940,11 +6948,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>C004</t>
@@ -6952,7 +6956,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MA263</t>
         </is>
       </c>
     </row>
@@ -6972,27 +6976,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -7003,19 +7007,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7035,27 +7035,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -7069,12 +7069,12 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -7094,27 +7094,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -7125,19 +7125,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -7157,27 +7153,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -7188,19 +7184,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -7263,7 +7255,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7318,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7381,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -7452,7 +7444,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -7515,7 +7507,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -7535,12 +7527,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7578,7 +7570,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -7598,12 +7590,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -7641,1825 +7633,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>3</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>3</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>3</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>3</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>3</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
           <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>3</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>3</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>3</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>3</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>3</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>MA261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>3</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>EC261</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>3</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>3</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>EC261</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>3</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>3</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>3</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>3</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>3</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>3</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>3</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>3</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>3</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>3</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>3</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>3</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>EC263</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>3</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>3</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>MA261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>3</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>3</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>EC263</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>3</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,224 +481,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS307 [L404]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA261 [L407]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>EC261 [C104]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [L402]</t>
+          <t>CS307 [C104]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC263 [C304]</t>
+          <t>EC263 [C104]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC263 [C104]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C004]</t>
+          <t>MA261 [C203]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HSS_B3 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC261 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC263 [C204]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC261 [C104]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial) [C102]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [C203]</t>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C104]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C104]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C104]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C104]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -713,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,12 +835,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -786,16 +850,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ASD352, CS253</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -816,27 +880,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -861,7 +925,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -871,17 +935,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -906,7 +970,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -926,11 +990,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -943,51 +1007,6 @@
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>Semester 3</t>
         </is>
@@ -1004,7 +1023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,26 +1071,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1087,26 +1106,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1122,22 +1141,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -1157,12 +1176,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1172,7 +1191,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1184,251 +1203,6 @@
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1542,16 +1316,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1610,16 +1384,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>23.75</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1678,16 +1452,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1746,16 +1520,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>56.25</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1950,16 +1724,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2154,16 +1928,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2290,16 +2064,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2474,16 +2248,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2542,16 +2316,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2644,16 +2418,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2706,7 +2480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2749,179 +2523,179 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS307 [L404]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA261 [L407]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>EC261 [C104]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [L402]</t>
+          <t>CS307 [C104]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC263 [C304]</t>
+          <t>EC263 [C104]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC263 [C104]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C004]</t>
+          <t>MA261 [C203]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>CS307 [C204]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>EC261 (Tutorial) [C102]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EC261 [C004]</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
@@ -2929,44 +2703,108 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC263 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC261 [C104]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial) [C102]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [L206]</t>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C104]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C104]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C104]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C104]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -3009,29 +2847,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3043,75 +2877,67 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3121,19 +2947,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -3141,63 +2967,51 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -3205,12 +3019,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CS162</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -3218,110 +3032,134 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3334,7 +3172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3432,7 +3270,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3486,34 +3324,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>No</t>
@@ -3526,7 +3364,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C002, C203</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3411,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104, C102</t>
         </is>
       </c>
     </row>
@@ -3667,34 +3505,34 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>L402, L404, C004</t>
+          <t>C104, C102, C204</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**ELECTIVE_B4**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3714,39 +3552,39 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>L407, C004</t>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**EC263**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3761,99 +3599,52 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C104, L105</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**EC263**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>Total Courses: 8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Complete: 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>Rate: 12.5%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>Labs: 2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 7 issues</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>C203, C304, C204</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total Courses: 9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Complete: 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Rate: 11.1%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lectures: 18</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Labs: 2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[WARN] 8 issues</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -3870,7 +3661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3928,26 +3719,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3955,23 +3746,23 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA261, EC261 (Tutorial), MA262...</t>
+          <t>MA262, MA261</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3986,11 +3777,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3998,23 +3789,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>CS307 (Tutorial), EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4029,11 +3820,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4041,23 +3832,23 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC263, MINOR: Design, EC261...</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4088,7 +3879,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -4100,7 +3891,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4110,7 +3901,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4143,26 +3934,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4174,55 +3965,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -4237,7 +3985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4311,6 +4059,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4333,22 +4086,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -4362,12 +4115,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4392,22 +4150,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -4421,12 +4179,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4451,22 +4214,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -4480,12 +4243,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4505,27 +4273,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -4539,12 +4307,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4564,12 +4337,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4579,12 +4352,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -4598,12 +4371,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4623,27 +4401,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -4657,12 +4435,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4682,27 +4465,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -4716,12 +4499,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4741,7 +4529,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -4751,17 +4539,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -4775,12 +4563,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4593,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4810,17 +4603,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -4834,12 +4627,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4657,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4879,7 +4677,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -4893,12 +4691,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4918,12 +4721,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4933,12 +4736,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -4952,12 +4755,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4977,12 +4785,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4997,7 +4805,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -5011,12 +4819,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5036,27 +4849,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -5070,12 +4883,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5095,27 +4913,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -5129,12 +4947,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5154,12 +4977,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5182,18 +5005,23 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5213,42 +5041,51 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5268,27 +5105,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -5296,22 +5133,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5331,27 +5169,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -5359,22 +5197,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5394,27 +5233,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5422,22 +5261,23 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5457,27 +5297,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5485,22 +5325,23 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5520,27 +5361,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -5548,22 +5389,23 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5583,27 +5425,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5611,22 +5453,23 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5646,27 +5489,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5674,22 +5517,23 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5709,12 +5553,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5737,18 +5581,23 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5768,12 +5617,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5802,14 +5651,15 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
-        </is>
-      </c>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -5827,29 +5677,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -5861,14 +5707,15 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -5886,7 +5733,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5917,7 +5764,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5925,7 +5776,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5945,22 +5801,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5976,15 +5832,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6004,22 +5869,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -6035,15 +5900,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6063,29 +5937,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="b">
         <v>0</v>
       </c>
@@ -6094,15 +5964,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6122,12 +6001,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6153,15 +6032,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6181,12 +6069,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6212,15 +6100,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6137,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -6250,17 +6147,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -6278,12 +6175,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6303,27 +6205,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6334,21 +6236,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -6366,7 +6265,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -6376,17 +6275,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -6397,21 +6296,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -6429,12 +6325,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6472,7 +6368,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6492,27 +6393,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6530,12 +6431,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6555,27 +6461,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6593,12 +6499,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6618,29 +6529,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -6656,12 +6563,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6681,27 +6593,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -6712,15 +6624,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6740,27 +6661,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -6771,15 +6692,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6799,12 +6729,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6830,15 +6760,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6858,12 +6797,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6892,14 +6831,15 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
-        </is>
-      </c>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6917,27 +6857,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6951,14 +6891,15 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6976,27 +6917,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -7007,15 +6948,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7035,22 +6985,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -7066,15 +7016,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7094,22 +7053,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -7125,15 +7084,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7153,29 +7121,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -7184,15 +7148,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7212,27 +7185,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -7250,12 +7223,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7275,27 +7253,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -7313,12 +7291,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7338,27 +7321,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -7376,12 +7359,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7389,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -7411,17 +7399,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -7432,21 +7420,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7464,27 +7449,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -7495,21 +7480,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7527,27 +7509,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -7558,21 +7540,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7590,52 +7569,289 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7648,7 +7864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7887,7 +8103,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7944,7 +8160,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8001,7 +8217,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8058,27 +8274,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3/0/0</t>
+          <t>3/1/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -8093,7 +8309,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -8115,12 +8331,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8164,63 +8380,6 @@
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Differential Equations</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3/1/0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -8300,7 +8459,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 23:36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8321,11 +8480,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 5, Elective: 4</t>
+          <t>Core: 5, Elective: 3</t>
         </is>
       </c>
     </row>
@@ -8347,7 +8506,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/9 courses fully compliant</t>
+          <t>0/8 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -8364,12 +8523,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
@@ -8386,12 +8545,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>37.1%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 74.3%, B: 0.0%</t>
+          <t>A: 73.3%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -8413,7 +8572,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 35.1/100</t>
+          <t>Score: 35.0/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
@@ -5617,29 +5617,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="b">
         <v>0</v>
       </c>
@@ -5651,12 +5647,12 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -5682,20 +5678,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -5704,18 +5704,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -5743,17 +5751,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -5771,12 +5779,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5816,7 +5824,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5839,12 +5847,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5887,11 +5895,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -5907,12 +5911,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5947,15 +5951,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
@@ -5971,12 +5979,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6039,12 +6047,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6107,12 +6115,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6142,7 +6150,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6168,26 +6176,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -6205,12 +6205,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -6239,7 +6239,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -6270,22 +6270,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -6296,18 +6296,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -6335,17 +6343,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6363,12 +6371,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6408,7 +6416,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6431,12 +6439,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6479,11 +6487,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="b">
         <v>0</v>
       </c>
@@ -6499,12 +6503,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6539,15 +6543,19 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -6563,12 +6571,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6631,12 +6639,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6699,12 +6707,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6734,7 +6742,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6760,26 +6768,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6797,12 +6797,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6831,12 +6831,12 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -6862,22 +6862,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6888,18 +6888,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6927,17 +6935,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6955,12 +6963,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7000,7 +7008,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -7023,12 +7031,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7071,11 +7079,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="b">
         <v>0</v>
       </c>
@@ -7091,12 +7095,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7131,15 +7135,19 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -7155,12 +7163,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7223,12 +7231,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7291,12 +7299,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7326,7 +7334,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7352,26 +7360,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7394,22 +7394,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -7423,12 +7423,12 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7483,7 +7483,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -7509,12 +7509,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7543,12 +7543,12 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -7634,22 +7634,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -7663,12 +7663,12 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -7783,7 +7783,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -7843,7 +7843,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">

--- a/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
@@ -486,27 +486,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
     </row>
@@ -518,27 +518,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC261 [C104]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C104]</t>
+          <t>EC261 [L407]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC263 [C104]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [L406]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -565,12 +565,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC263 [C104]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC263 [C203]</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA261 [C203]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C102]</t>
+          <t>EC261 (Tutorial) [C003]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC261 [C104]</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 [C004]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C102]</t>
+          <t>CS307 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,31 +835,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Tue</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>ASD352, CS253</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -880,27 +880,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -925,7 +925,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -970,43 +970,88 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>HSS_B5</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Mon</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Fri</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>HS301</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>A &amp; B (Common)</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Semester 3</t>
         </is>
@@ -1023,7 +1068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,26 +1116,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1106,26 +1151,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1141,22 +1186,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -1176,12 +1221,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1191,7 +1236,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1203,6 +1248,251 @@
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1316,16 +1606,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1350,16 +1640,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1384,16 +1674,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>56.25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1418,16 +1708,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1452,16 +1742,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1520,16 +1810,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>56.25</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1996,16 +2286,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2384,16 +2674,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2418,16 +2708,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2528,27 +2818,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
     </row>
@@ -2560,27 +2850,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC261 [C104]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C104]</t>
+          <t>EC261 [L407]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC263 [C104]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2887,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [L406]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2607,12 +2897,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC263 [C104]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC263 [C203]</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2946,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA261 [C203]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2666,7 +2956,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2688,12 +2978,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C102]</t>
+          <t>EC261 (Tutorial) [C003]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2725,7 +3015,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC261 [C104]</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2735,12 +3025,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>EC263 [C004]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>EC263 (Lab) [L206]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -2752,7 +3042,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C102]</t>
+          <t>CS307 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2767,12 +3057,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>EC263 (Lab) [L206]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -2784,27 +3074,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
     </row>
@@ -2847,97 +3137,109 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002, C101</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101, C102</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DE352</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C102, C104</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C104, C202</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2947,19 +3249,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202, C203</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -2967,51 +3269,63 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C002, C101</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C101, C102</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C102, C104</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -3019,12 +3333,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HS365</t>
+          <t>CS162</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -3032,134 +3346,110 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C202, C203</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3167,6 +3457,542 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lect/Tuts/Week</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>**MA262**</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>**HSS_B3**</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B3**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**EC261**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2-1-0-0-3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C004, C003, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B5**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>**CS307**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Deepak K T</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C302, C204, C101</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>**MA261**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>L406, C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>**EC263**</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Analog Electronics</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>C004, L206, C203</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Total Courses: 9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Complete: 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Rate: 11.1%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lectures: 18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[WARN] 8 issues</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3183,794 +4009,434 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Faculty</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LTPSC</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Lect/Tuts/Week</t>
+          <t>Total Sessions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Labs/Week</t>
+          <t>Sections</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Combined Class</t>
+          <t>Courses Assigned</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Allocation</t>
+          <t>Sample Courses</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Room</t>
+          <t>Utilization (Sessions/Day)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**HSS_B3**</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>EC263, MINOR: DSAI, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C002, C203</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**EC261**</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C104, C102</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C104, C102, C204</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**EC263**</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C104, L105</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**SUMMARY**</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Total Courses: 8</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Complete: 1</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rate: 12.5%</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Lectures: 16</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Labs: 2</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[WARN] 7 issues</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Room Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Sessions</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sections</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Courses Assigned</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sample Courses</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Utilization (Sessions/Day)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>MA262, MA261</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial), EC261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>EC263, MINOR: Design, EC261...</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
           <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3985,7 +4451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4021,47 +4487,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -4091,42 +4567,50 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>MINOR: Generative Ai</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4155,42 +4639,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4214,47 +4706,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4278,47 +4778,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4342,47 +4850,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4401,52 +4917,60 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4470,47 +4994,55 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4534,47 +5066,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4598,47 +5138,55 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4662,47 +5210,55 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4721,52 +5277,60 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4790,47 +5354,55 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4854,47 +5426,55 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4913,52 +5493,60 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4977,52 +5565,60 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5046,47 +5642,55 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5110,47 +5714,55 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5174,47 +5786,55 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5233,52 +5853,60 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5297,52 +5925,60 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5361,52 +5997,60 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5430,47 +6074,55 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5494,47 +6146,55 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5563,42 +6223,50 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>MINOR: Design</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5622,40 +6290,60 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -5683,46 +6371,50 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5751,46 +6443,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5819,46 +6519,54 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5887,42 +6595,54 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>EC254</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5951,46 +6671,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>CS152</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6019,46 +6747,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6077,56 +6813,64 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6145,49 +6889,61 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -6210,44 +6966,60 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -6275,46 +7047,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6343,46 +7123,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6411,46 +7199,54 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6479,42 +7275,54 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6533,56 +7341,64 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6601,56 +7417,60 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6669,56 +7489,64 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6737,49 +7565,65 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6802,44 +7646,60 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6867,46 +7727,54 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6935,923 +7803,55 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>3</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>3</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>3</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>3</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>3</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>3</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>3</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>3</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>3</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>3</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>3</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>3</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7864,7 +7864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8103,7 +8103,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8160,7 +8160,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8217,7 +8217,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8274,27 +8274,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -8331,55 +8331,112 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Differential Equations</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>3-1-0-0-2</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>3/1/0</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2/0/0</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>0/0/0</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[FAIL]</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>[FAIL]</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[WARN] PARTIAL</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -8459,7 +8516,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 23:36</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8480,11 +8537,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 5, Elective: 3</t>
+          <t>Core: 5, Elective: 4</t>
         </is>
       </c>
     </row>
@@ -8506,7 +8563,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/8 courses fully compliant</t>
+          <t>0/9 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -8523,12 +8580,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6/36</t>
+          <t>9/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 16.7%</t>
+          <t>Utilization: 25.0%</t>
         </is>
       </c>
     </row>
@@ -8545,12 +8602,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>36.7%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 73.3%, B: 0.0%</t>
+          <t>A: 80.0%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -8572,7 +8629,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 35.0/100</t>
+          <t>Score: 36.0/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
@@ -518,27 +518,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC261 [L407]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>EC263 [C205]</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [L406]</t>
+          <t>CS307 [L407]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -565,12 +565,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>EC263 [C203]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EC263 [C203]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC263 [C004]</t>
+          <t>EC263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -710,27 +710,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>MA262 (Tutorial) [C003]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1576,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1674,16 +1674,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>56.25</v>
+        <v>52.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1708,16 +1708,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2048,16 +2048,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2116,16 +2116,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2150,16 +2150,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2286,16 +2286,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2674,16 +2674,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2850,27 +2850,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC261 [L407]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>EC263 [C205]</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [L406]</t>
+          <t>CS307 [L407]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2897,12 +2897,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>EC263 [C203]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EC263 [C203]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC263 [C004]</t>
+          <t>EC263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -3042,27 +3042,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>MA262 (Tutorial) [C003]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C101</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C101</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C101, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -3457,542 +3457,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>LTPSC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lect/Tuts/Week</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Labs/Week</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Combined Class</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Room</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>**MA262**</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Differential Equations</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Anand Barangi</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>**HSS_B3**</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Elective Basket</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Not Allocated</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>**ELECTIVE_B3**</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Elective Basket</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Not Allocated</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>**EC261**</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Signals &amp; Systems</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Somen B</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2-1-0-0-3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>C004, C003, L407</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>**ELECTIVE_B5**</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Elective Basket</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Not Allocated</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>**CS307**</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Machine Learning</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Deepak K T</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>C302, C204, C101</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**MA261**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Somen B</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>L406, C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>**ELECTIVE_B4**</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Elective Basket</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Not Allocated</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>**EC263**</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Analog Electronics</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Rajesh Kumar</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>C004, L206, C203</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total Courses: 9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Complete: 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Rate: 11.1%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lectures: 18</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Labs: 2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[WARN] 8 issues</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4009,69 +3473,553 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Room Number</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Capacity</t>
+          <t>Faculty</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>LTPSC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total Sessions</t>
+          <t>Lect/Tuts/Week</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Sections</t>
+          <t>Labs/Week</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Courses Assigned</t>
+          <t>Combined Class</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Sample Courses</t>
+          <t>Allocation</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Utilization (Sessions/Day)</t>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>**EC261**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2-1-0-0-3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>C004, C003</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>**HSS_B3**</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B3**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B5**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>**CS307**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>C004, C302, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>**MA262**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C004, C001, C003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>**EC263**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Analog Electronics</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>L207, C205, C203</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Total Courses: 8</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Complete: 2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Rate: 25.0%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lectures: 16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Sessions</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Courses Assigned</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sample Courses</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization (Sessions/Day)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Projector</t>
+          <t>120</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -4087,7 +4035,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4099,26 +4047,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4126,42 +4074,42 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC263, MINOR: DSAI, MINOR: VLSI...</t>
+          <t>MA262 (Tutorial), EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4169,16 +4117,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>MINOR: Cybersecurity, CS307, MINOR: Generative Ai...</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4176,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4259,7 +4207,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -4302,7 +4250,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -4314,12 +4262,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4329,7 +4277,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4357,7 +4305,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4388,53 +4336,10 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>EC261</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
@@ -4451,7 +4356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4639,7 +4544,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -4673,7 +4578,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -4812,7 +4717,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4999,7 +4904,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -5033,7 +4938,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -5071,7 +4976,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -5100,12 +5005,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -5143,7 +5048,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -5177,7 +5082,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -5210,27 +5115,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -5244,17 +5149,17 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P11" t="b">
@@ -5277,17 +5182,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -5321,7 +5226,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -5354,12 +5259,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -5393,7 +5298,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -5426,12 +5331,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -5465,7 +5370,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -5493,17 +5398,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -5537,7 +5442,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -5570,27 +5475,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -5604,12 +5509,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -5642,29 +5547,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -5676,12 +5577,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -5714,7 +5615,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -5724,17 +5625,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -5748,7 +5649,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5786,27 +5687,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -5820,17 +5721,17 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P19" t="b">
@@ -5853,32 +5754,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5892,17 +5793,17 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P20" t="b">
@@ -5925,32 +5826,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -5964,12 +5865,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -6002,27 +5903,27 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -6036,12 +5937,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -6074,27 +5975,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -6108,17 +6009,17 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P23" t="b">
@@ -6146,27 +6047,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -6180,17 +6081,17 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P24" t="b">
@@ -6213,17 +6114,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -6246,10 +6147,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>C004</t>
@@ -6257,7 +6162,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -6295,24 +6200,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="b">
         <v>0</v>
       </c>
@@ -6328,12 +6229,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -6371,7 +6272,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -6384,7 +6285,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -6400,12 +6305,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -6443,17 +6348,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6476,12 +6381,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -6519,7 +6424,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -6552,12 +6457,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -6595,7 +6500,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -6628,12 +6533,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -6671,7 +6576,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -6686,7 +6591,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -6704,12 +6609,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -6737,32 +6642,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6780,17 +6685,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P32" t="b">
@@ -6823,24 +6728,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -6856,12 +6757,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -6899,7 +6800,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -6912,7 +6813,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
@@ -6928,12 +6833,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -6971,7 +6876,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -7009,7 +6914,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -7047,7 +6952,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -7085,7 +6990,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -7123,7 +7028,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -7156,12 +7061,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -7199,7 +7104,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -7214,7 +7119,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -7232,12 +7137,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -7265,32 +7170,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -7308,17 +7213,17 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P39" t="b">
@@ -7351,24 +7256,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="b">
         <v>0</v>
       </c>
@@ -7384,12 +7285,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -7427,7 +7328,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -7440,7 +7341,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
@@ -7456,12 +7361,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -7499,17 +7404,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7532,12 +7437,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -7575,7 +7480,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -7608,12 +7513,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -7651,7 +7556,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -7684,12 +7589,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -7727,7 +7632,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -7742,7 +7647,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -7760,12 +7665,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -7774,82 +7679,6 @@
         </is>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7864,7 +7693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7942,12 +7771,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -7967,12 +7796,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -8331,7 +8160,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -8341,17 +8170,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -8366,7 +8195,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -8380,63 +8209,6 @@
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Differential Equations</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3/1/0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -8516,7 +8288,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8537,11 +8309,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 5, Elective: 4</t>
+          <t>Core: 4, Elective: 4</t>
         </is>
       </c>
     </row>
@@ -8563,7 +8335,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/9 courses fully compliant</t>
+          <t>0/8 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -8580,12 +8352,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9/36</t>
+          <t>8/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 25.0%</t>
+          <t>Utilization: 22.2%</t>
         </is>
       </c>
     </row>
@@ -8602,12 +8374,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 80.0%, B: 0.0%</t>
+          <t>A: 77.8%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -8629,7 +8401,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 36.0/100</t>
+          <t>Score: 35.7/100</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8750,12 +8522,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HSS (Ethics)</t>
+          <t>HSS/IE</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -8763,11 +8535,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -8777,12 +8549,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Aswath Babu H</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -8822,27 +8594,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8854,7 +8626,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -8864,7 +8636,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -8874,7 +8646,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
         </is>
       </c>
     </row>
@@ -8894,39 +8666,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -8966,34 +8738,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>User Interaction (Minor)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Sandesh P</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -9038,24 +8810,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2-1-0-0-3</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -9065,7 +8837,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -9075,12 +8847,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -9090,7 +8862,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>
@@ -9110,34 +8882,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -9147,12 +8919,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -9162,7 +8934,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>
@@ -9182,34 +8954,34 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>User Interaction (Minor)</t>
+          <t>Introduction to embedded signels</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -9219,12 +8991,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -9233,150 +9005,6 @@
         </is>
       </c>
       <c r="P8" t="inlineStr">
-        <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>EC263</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Analog Electronics</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Rajesh Kumar</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Introduction to embedded signels</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Sibasankar Padhy</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
@@ -9474,7 +9102,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -9489,7 +9117,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -9522,7 +9150,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9532,7 +9160,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -9570,7 +9198,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Not Scheduled (Error)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -9580,12 +9208,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -9618,7 +9246,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -9628,7 +9256,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -9666,7 +9294,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -9681,7 +9309,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -9714,7 +9342,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -9729,7 +9357,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -9762,7 +9390,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -9772,7 +9400,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -10424,7 +10052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10487,12 +10115,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HSS (Ethics)</t>
+          <t>HSS/IE</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -10523,28 +10151,28 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Aswath Babu H</t>
+          <t>TBD</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -10571,7 +10199,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -10583,16 +10211,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -10619,28 +10247,28 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Deepak K T</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>User Interaction (Minor)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -10672,23 +10300,23 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Sandesh P</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -10710,7 +10338,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -10727,16 +10355,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -10758,7 +10386,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -10768,23 +10396,23 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Chinmayananda A</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>User Interaction (Minor)</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
@@ -10806,7 +10434,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -10816,19 +10444,19 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>Electronics Systems design - 1</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -10864,19 +10492,19 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>Pankaj</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Introduction of RFIC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -10912,19 +10540,19 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Electronics Systems design - 1</t>
+          <t>Electronic Systems engineering</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -10960,19 +10588,19 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Mallikarjun Kande</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS162</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Introduction of RFIC</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -11008,19 +10636,19 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Abdul Wahid</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Electronic Systems engineering</t>
+          <t>2D Computer Graphics</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -11056,23 +10684,23 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Vivekraj</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CS162</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>HSS/IE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -11084,17 +10712,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
+          <t>Post-Mid</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -11104,23 +10732,23 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>TBD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2D Computer Graphics</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -11132,17 +10760,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
+          <t>Post-Mid</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -11152,23 +10780,23 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Vivekraj</t>
+          <t>Somen B</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HSS (Ethics)</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -11195,28 +10823,28 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aswath Babu H</t>
+          <t>Deepak K T</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>User Interaction (Minor)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -11233,7 +10861,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -11243,19 +10871,19 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Sandesh P</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -11286,12 +10914,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -11303,16 +10931,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>3</v>
@@ -11329,12 +10957,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -11344,23 +10972,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Introduction to embedded signels</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
@@ -11377,12 +11005,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -11391,198 +11019,6 @@
         </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>Somen B</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Machine Learning</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Any</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Deepak K T</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>DE352</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>User Interaction (Minor)</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Any</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>EC263</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Analog Electronics</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Rajesh Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Introduction to embedded signels</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
         <is>
           <t>Sibasankar Padhy</t>
         </is>

--- a/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_post_mid_timetable.xlsx
@@ -486,27 +486,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -518,27 +518,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>EC261 [C001]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>EC261 [L407]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C001]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262 [C001]</t>
+          <t>MA262 [C104]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC263 [C205]</t>
+          <t>EC263 [C203]</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC263 [C203]</t>
+          <t>EC263 [C104]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C104]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C302]</t>
+          <t>CS307 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C003]</t>
+          <t>MA262 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1576,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1674,16 +1674,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>52.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1742,16 +1742,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2286,16 +2286,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2708,16 +2708,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2818,27 +2818,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -2850,27 +2850,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>EC261 [C001]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>EC261 [L407]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C001]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262 [C001]</t>
+          <t>MA262 [C104]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC263 [C205]</t>
+          <t>EC263 [C203]</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC263 [C203]</t>
+          <t>EC263 [C104]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C104]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C302]</t>
+          <t>CS307 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C003]</t>
+          <t>MA262 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3074,27 +3074,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, C003</t>
+          <t>L407, C003, C001</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004, C302, L407</t>
+          <t>L407, C102, C001</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, C001, C003</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>L207, C205, C203</t>
+          <t>C104, L207, C203</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4031,16 +4031,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS307, EC261</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4074,42 +4074,42 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial), EC261 (Tutorial)</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4117,23 +4117,23 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, CS307, MINOR: Generative Ai...</t>
+          <t>CS307 (Tutorial), MINOR: Generative Ai, MINOR: Design...</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4148,11 +4148,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4160,23 +4160,23 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MINOR: Generative Ai, MINOR: Design, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4219,26 +4219,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4250,34 +4250,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4289,59 +4289,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>CS307, EC261</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4477,17 +4434,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -4501,7 +4458,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4549,19 +4506,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
@@ -4573,7 +4526,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4717,7 +4670,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4765,17 +4718,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4789,7 +4742,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4837,17 +4790,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -4861,7 +4814,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4909,17 +4862,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4933,7 +4886,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -5053,17 +5006,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -5077,7 +5030,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -5125,12 +5078,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -5149,7 +5102,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -5197,17 +5150,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -5221,7 +5174,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -5269,17 +5222,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -5293,7 +5246,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -5341,19 +5294,15 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -5365,7 +5314,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -5413,17 +5362,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -5437,7 +5386,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5485,17 +5434,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -5509,7 +5458,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5557,15 +5506,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -5577,7 +5530,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5635,7 +5588,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -5649,7 +5602,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5841,17 +5794,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -5865,7 +5818,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5913,17 +5866,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5937,7 +5890,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -6009,7 +5962,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -6057,17 +6010,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -6081,7 +6034,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -6129,17 +6082,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -6157,7 +6110,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -6205,15 +6158,19 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
@@ -6229,7 +6186,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -6277,12 +6234,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6305,7 +6262,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -6381,7 +6338,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6457,7 +6414,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6515,7 +6472,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -6533,7 +6490,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6609,7 +6566,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6657,17 +6614,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6685,7 +6642,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6733,15 +6690,19 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -6757,7 +6718,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6805,12 +6766,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -6833,7 +6794,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6909,7 +6870,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6985,7 +6946,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -7043,7 +7004,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -7061,7 +7022,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -7137,7 +7098,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -7185,17 +7146,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -7213,7 +7174,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -7261,15 +7222,19 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
@@ -7285,7 +7250,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -7333,12 +7298,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7361,7 +7326,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7437,7 +7402,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7513,7 +7478,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7571,7 +7536,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -7589,7 +7554,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7665,7 +7630,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -8288,7 +8253,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8352,12 +8317,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8/36</t>
+          <t>7/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 22.2%</t>
+          <t>Utilization: 19.4%</t>
         </is>
       </c>
     </row>
